--- a/Stenges Table-Dependability-Runoff Calculations (1).xlsx
+++ b/Stenges Table-Dependability-Runoff Calculations (1).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1791512C-3A45-484A-90BF-4D70F28E67D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="832" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annexure 1A" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <sheet name="format 2" sheetId="10" r:id="rId8"/>
     <sheet name="Format 3" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -427,11 +439,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +768,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -786,6 +807,12 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,27 +822,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -862,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,9 +914,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,6 +966,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1103,34 +1159,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1170,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1192,7 +1248,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1213,7 +1269,7 @@
         <v>0.250469</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1234,7 +1290,7 @@
         <v>0.29268699999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1255,7 +1311,7 @@
         <v>0.335453</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -1276,7 +1332,7 @@
         <v>0.38116999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -1297,7 +1353,7 @@
         <v>0.42931600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1318,7 +1374,7 @@
         <v>0.48304699999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1339,7 +1395,7 @@
         <v>0.53760699999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -1360,7 +1416,7 @@
         <v>0.59406199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1381,7 +1437,7 @@
         <v>0.654281</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -1402,7 +1458,7 @@
         <v>0.72012900000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -1423,7 +1479,7 @@
         <v>0.785331</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -1444,7 +1500,7 @@
         <v>0.85378100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -1465,7 +1521,7 @@
         <v>0.92476600000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -1486,7 +1542,7 @@
         <v>1.002203</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -1507,7 +1563,7 @@
         <v>1.079094</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -1528,7 +1584,7 @@
         <v>1.1587190000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>1.2403120000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -1570,7 +1626,7 @@
         <v>1.3304370000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -1591,7 +1647,7 @@
         <v>1.4184840000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -1612,7 +1668,7 @@
         <v>1.5093749999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -1633,7 +1689,7 @@
         <v>1.6030000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -1654,7 +1710,7 @@
         <v>1.704272</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -1675,7 +1731,7 @@
         <v>1.8035939999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -1696,7 +1752,7 @@
         <v>1.9057499999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -1717,7 +1773,7 @@
         <v>2.0106410000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -1738,7 +1794,7 @@
         <v>2.1237340000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -1759,7 +1815,7 @@
         <v>2.2344220000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>29</v>
       </c>
@@ -1780,7 +1836,7 @@
         <v>2.3478440000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -1801,7 +1857,7 @@
         <v>2.4641090000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -1822,7 +1878,7 @@
         <v>2.5890159999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -1843,7 +1899,7 @@
         <v>2.710969</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -1864,7 +1920,7 @@
         <v>2.835766</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -1885,7 +1941,7 @@
         <v>2.9632969999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -1906,7 +1962,7 @@
         <v>3.1000160000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -1927,7 +1983,7 @@
         <v>3.2332339999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -1948,7 +2004,7 @@
         <v>3.3692970000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -1969,7 +2025,7 @@
         <v>3.5082930000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -1990,7 +2046,7 @@
         <v>3.6567340000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -2011,7 +2067,7 @@
         <v>3.8013279999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -2032,7 +2088,7 @@
         <v>3.9486559999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -2053,7 +2109,7 @@
         <v>4.0988280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -2074,7 +2130,7 @@
         <v>4.2591719999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -2095,7 +2151,7 @@
         <v>4.4151410000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -2127,34 +2183,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2194,7 +2250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2216,7 +2272,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -2238,7 +2294,7 @@
         <v>0.50104700000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -2258,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -2279,7 +2335,7 @@
         <v>0.67079699999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -2300,7 +2356,7 @@
         <v>0.75687499999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -2322,7 +2378,7 @@
         <v>0.85914100000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -2344,7 +2400,7 @@
         <v>0.96709400000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -2366,7 +2422,7 @@
         <v>1.0534999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -2388,7 +2444,7 @@
         <v>1.1892339999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -2409,7 +2465,7 @@
         <v>1.3085630000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -2431,7 +2487,7 @@
         <v>1.44025</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -2453,7 +2509,7 @@
         <v>1.571062</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -2474,7 +2530,7 @@
         <v>1.707562</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -2495,7 +2551,7 @@
         <v>1.8496410000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -2516,7 +2572,7 @@
         <v>2.0048439999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -2537,7 +2593,7 @@
         <v>2.1582970000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -2559,7 +2615,7 @@
         <v>2.3174380000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -2581,7 +2637,7 @@
         <v>2.4820470000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -2603,7 +2659,7 @@
         <v>2.6509840000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -2625,7 +2681,7 @@
         <v>2.837078</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -2647,7 +2703,7 @@
         <v>3.0186500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -2669,7 +2725,7 @@
         <v>3.2060000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -2691,7 +2747,7 @@
         <v>3.4084530000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -2713,7 +2769,7 @@
         <v>3.6071879999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -2735,7 +2791,7 @@
         <v>3.8114999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -2756,7 +2812,7 @@
         <v>4.0213939999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -2778,7 +2834,7 @@
         <v>4.2451720000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -2800,7 +2856,7 @@
         <v>4.4688440000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>29</v>
       </c>
@@ -2821,7 +2877,7 @@
         <v>4.6957969999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -2842,7 +2898,7 @@
         <v>4.9279999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -2864,7 +2920,7 @@
         <v>5.1780309999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -2886,7 +2942,7 @@
         <v>5.4219379999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -2908,7 +2964,7 @@
         <v>5.6715309999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -2930,7 +2986,7 @@
         <v>5.9265939999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -2952,7 +3008,7 @@
         <v>6.2000310000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -2974,7 +3030,7 @@
         <v>6.4665779999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -2996,7 +3052,7 @@
         <v>6.7387030000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -3018,7 +3074,7 @@
         <v>7.0165160000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -3040,7 +3096,7 @@
         <v>7.3134690000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -3062,7 +3118,7 @@
         <v>7.6026559999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -3084,7 +3140,7 @@
         <v>7.8974220000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -3106,7 +3162,7 @@
         <v>8.1977659999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -3128,7 +3184,7 @@
         <v>8.5184529999999992</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -3149,7 +3205,7 @@
         <v>6.6424530000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -3182,34 +3238,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3229,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3249,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3271,7 +3327,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -3293,7 +3349,7 @@
         <v>0.37548399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -3314,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -3335,7 +3391,7 @@
         <v>0.50323399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -3357,7 +3413,7 @@
         <v>0.57170299999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -3378,7 +3434,7 @@
         <v>0.64432800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3399,7 +3455,7 @@
         <v>0.72526599999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -3421,7 +3477,7 @@
         <v>0.806531</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -3442,7 +3498,7 @@
         <v>0.89184399999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3463,7 +3519,7 @@
         <v>0.98142200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -3484,7 +3540,7 @@
         <v>1.0801879999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -3505,7 +3561,7 @@
         <v>1.1236090000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -3526,7 +3582,7 @@
         <v>1.2796879999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -3547,7 +3603,7 @@
         <v>1.38775</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -3568,7 +3624,7 @@
         <v>1.5035780000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -3589,7 +3645,7 @@
         <v>1.618641</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -3610,7 +3666,7 @@
         <v>1.7162029999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -3632,7 +3688,7 @@
         <v>1.861453</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -3654,7 +3710,7 @@
         <v>1.9956559999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>20</v>
       </c>
@@ -3675,7 +3731,7 @@
         <v>2.1277810000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>21</v>
       </c>
@@ -3696,7 +3752,7 @@
         <v>2.264062</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -3717,7 +3773,7 @@
         <v>2.4045000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>23</v>
       </c>
@@ -3738,7 +3794,7 @@
         <v>2.5563130000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>24</v>
       </c>
@@ -3760,7 +3816,7 @@
         <v>2.7053910000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -3781,7 +3837,7 @@
         <v>2.8575249999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -3802,7 +3858,7 @@
         <v>3.016016</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -3823,7 +3879,7 @@
         <v>3.1856560000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -3844,7 +3900,7 @@
         <v>3.3515779999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>29</v>
       </c>
@@ -3865,7 +3921,7 @@
         <v>3.521766</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -3886,7 +3942,7 @@
         <v>3.6961090000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -3907,7 +3963,7 @@
         <v>3.8834689999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -3928,7 +3984,7 @@
         <v>4.0064530000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -3949,7 +4005,7 @@
         <v>4.2535939999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -3971,7 +4027,7 @@
         <v>4.4448910000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -3992,7 +4048,7 @@
         <v>4.6499689999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -4013,7 +4069,7 @@
         <v>4.8499059999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -4034,7 +4090,7 @@
         <v>5.0539999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -4055,7 +4111,7 @@
         <v>5.262359</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -4076,7 +4132,7 @@
         <v>5.4850469999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -4098,7 +4154,7 @@
         <v>5.7019339999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>41</v>
       </c>
@@ -4119,7 +4175,7 @@
         <v>5.9229840000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>42</v>
       </c>
@@ -4140,7 +4196,7 @@
         <v>6.1482970000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -4161,7 +4217,7 @@
         <v>6.338813</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -4182,7 +4238,7 @@
         <v>6.6226559999999992</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>45</v>
       </c>
@@ -4215,44 +4271,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="11.54296875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="15.75">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" ht="94.5">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -4278,7 +4334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" ht="15.75">
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -4304,7 +4360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" ht="15.75">
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -4314,7 +4370,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" ht="15.75">
+    <row r="7" spans="1:8" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -4324,7 +4380,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4334,63 +4390,63 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" s="19" customFormat="1" ht="15.75">
+    <row r="9" spans="1:8" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B10" s="61" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="1:8" s="19" customFormat="1" ht="15.75">
-      <c r="B11" s="61" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="62" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="62" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -4398,7 +4454,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="75">
+    <row r="16" spans="1:8" ht="56" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>1</v>
       </c>
@@ -4438,7 +4494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -4446,7 +4502,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -4454,37 +4510,37 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B21" s="58" t="s">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B22" s="58" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-    </row>
-    <row r="23" spans="1:6" ht="106.5" customHeight="1">
-      <c r="B23" s="59" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4503,32 +4559,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:F230"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" style="29" customWidth="1"/>
     <col min="2" max="3" width="15" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
+    <col min="4" max="4" width="6.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="4" spans="1:5" s="31" customFormat="1" ht="15.75">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="4" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +4601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>1</v>
       </c>
@@ -4562,7 +4618,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -4579,7 +4635,7 @@
         <v>660.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>3</v>
       </c>
@@ -4596,7 +4652,7 @@
         <v>727.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -4613,7 +4669,7 @@
         <v>650.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -4630,7 +4686,7 @@
         <v>725.69</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -4647,7 +4703,7 @@
         <v>548.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -4664,7 +4720,7 @@
         <v>892.4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <v>8</v>
       </c>
@@ -4681,7 +4737,7 @@
         <v>663.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -4698,7 +4754,7 @@
         <v>679.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -4715,7 +4771,7 @@
         <v>644.76</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="32">
         <v>11</v>
       </c>
@@ -4732,7 +4788,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -4749,7 +4805,7 @@
         <v>633.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -4766,7 +4822,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -4783,7 +4839,7 @@
         <v>674.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -4800,1473 +4856,1473 @@
         <v>983</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="40"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="63" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="63" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="36"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
       <c r="D30" s="38"/>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
       <c r="D36" s="38"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
       <c r="D38" s="38"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="38"/>
       <c r="E39" s="39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
       <c r="E41" s="39"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
       <c r="E42" s="39"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
       <c r="D43" s="38"/>
       <c r="E43" s="39"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="38"/>
       <c r="E44" s="39"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="38"/>
       <c r="E45" s="39"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
       <c r="E46" s="39"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
       <c r="D47" s="38"/>
       <c r="E47" s="39"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
       <c r="D48" s="38"/>
       <c r="E48" s="39"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="38"/>
       <c r="E49" s="39"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="38"/>
       <c r="E50" s="39"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="38"/>
       <c r="E51" s="39"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="36"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="38"/>
       <c r="E53" s="39"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
       <c r="D54" s="38"/>
       <c r="E54" s="39"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
       <c r="D56" s="38"/>
       <c r="E56" s="39"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="36"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="36"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="36"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
       <c r="D62" s="38"/>
       <c r="E62" s="39"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38"/>
       <c r="E63" s="39"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="36"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
       <c r="D65" s="38"/>
       <c r="E65" s="39"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
       <c r="D66" s="38"/>
       <c r="E66" s="39"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="38"/>
       <c r="E67" s="39"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
       <c r="D68" s="38"/>
       <c r="E68" s="39"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
       <c r="D69" s="38"/>
       <c r="E69" s="39"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38"/>
       <c r="E70" s="39"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="36"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
       <c r="D71" s="38"/>
       <c r="E71" s="39"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="36"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
       <c r="E72" s="39"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="36"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="36"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="36"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="36"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="36"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
       <c r="E79" s="39"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
       <c r="D80" s="38"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="36"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
       <c r="D81" s="38"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
       <c r="D82" s="38"/>
       <c r="E82" s="39"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="36"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
       <c r="D83" s="38"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="36"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
       <c r="D84" s="38"/>
       <c r="E84" s="39"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="36"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
       <c r="D85" s="38"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="36"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
       <c r="D86" s="38"/>
       <c r="E86" s="39"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="36"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
       <c r="D87" s="38"/>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="36"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="38"/>
       <c r="E88" s="39"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="36"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="38"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="36"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
       <c r="D90" s="38"/>
       <c r="E90" s="39"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="36"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
       <c r="D91" s="38"/>
       <c r="E91" s="39"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
       <c r="D92" s="38"/>
       <c r="E92" s="39"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
       <c r="D93" s="38"/>
       <c r="E93" s="39"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
       <c r="D94" s="38"/>
       <c r="E94" s="39"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="36"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
       <c r="D95" s="38"/>
       <c r="E95" s="39"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="38"/>
       <c r="E96" s="39"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="36"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
       <c r="D97" s="38"/>
       <c r="E97" s="39"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="36"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
       <c r="D98" s="38"/>
       <c r="E98" s="39"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="36"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
       <c r="D99" s="38"/>
       <c r="E99" s="39"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="36"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
       <c r="D100" s="38"/>
       <c r="E100" s="39"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="36"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
       <c r="D101" s="38"/>
       <c r="E101" s="39"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="36"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="38"/>
       <c r="E102" s="39"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="36"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
       <c r="D103" s="38"/>
       <c r="E103" s="39"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="36"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
       <c r="D104" s="38"/>
       <c r="E104" s="39"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="36"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
       <c r="D105" s="38"/>
       <c r="E105" s="39"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="36"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
       <c r="D106" s="38"/>
       <c r="E106" s="39"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="36"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
       <c r="D107" s="38"/>
       <c r="E107" s="39"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="36"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
       <c r="D108" s="38"/>
       <c r="E108" s="39"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="36"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
       <c r="D109" s="38"/>
       <c r="E109" s="39"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="36"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
       <c r="D110" s="38"/>
       <c r="E110" s="39"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="36"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="38"/>
       <c r="E111" s="39"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="36"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
       <c r="D112" s="38"/>
       <c r="E112" s="39"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="36"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
       <c r="D113" s="38"/>
       <c r="E113" s="39"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="36"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
       <c r="D114" s="38"/>
       <c r="E114" s="39"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="36"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
       <c r="D115" s="38"/>
       <c r="E115" s="39"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="36"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
       <c r="D116" s="38"/>
       <c r="E116" s="39"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="36"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
       <c r="D117" s="38"/>
       <c r="E117" s="39"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="36"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
       <c r="D118" s="38"/>
       <c r="E118" s="39"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="36"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
       <c r="D119" s="38"/>
       <c r="E119" s="39"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="36"/>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
       <c r="D120" s="38"/>
       <c r="E120" s="39"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="36"/>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
       <c r="D121" s="38"/>
       <c r="E121" s="39"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="36"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
       <c r="D122" s="38"/>
       <c r="E122" s="39"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="36"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
       <c r="D123" s="38"/>
       <c r="E123" s="39"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="36"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
       <c r="D124" s="38"/>
       <c r="E124" s="39"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="36"/>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
       <c r="D125" s="38"/>
       <c r="E125" s="39"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="36"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
       <c r="D126" s="38"/>
       <c r="E126" s="39"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="36"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
       <c r="D127" s="38"/>
       <c r="E127" s="39"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="36"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
       <c r="D128" s="38"/>
       <c r="E128" s="39"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="36"/>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
       <c r="D129" s="38"/>
       <c r="E129" s="39"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="36"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
       <c r="D130" s="38"/>
       <c r="E130" s="39"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="36"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
       <c r="D131" s="38"/>
       <c r="E131" s="39"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="36"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
       <c r="D132" s="38"/>
       <c r="E132" s="39"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="36"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
       <c r="D133" s="38"/>
       <c r="E133" s="39"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="36"/>
       <c r="B134" s="37"/>
       <c r="C134" s="37"/>
       <c r="D134" s="38"/>
       <c r="E134" s="39"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="36"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
       <c r="D135" s="38"/>
       <c r="E135" s="39"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="36"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
       <c r="D136" s="38"/>
       <c r="E136" s="39"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="36"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
       <c r="D137" s="38"/>
       <c r="E137" s="39"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="36"/>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
       <c r="D138" s="38"/>
       <c r="E138" s="39"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="36"/>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
       <c r="D139" s="38"/>
       <c r="E139" s="39"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="36"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
       <c r="D140" s="38"/>
       <c r="E140" s="39"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="36"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
       <c r="D141" s="38"/>
       <c r="E141" s="39"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="36"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="38"/>
       <c r="E142" s="39"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="36"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
       <c r="D143" s="38"/>
       <c r="E143" s="39"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="36"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
       <c r="D144" s="38"/>
       <c r="E144" s="39"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="36"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
       <c r="D145" s="38"/>
       <c r="E145" s="39"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="36"/>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
       <c r="D146" s="38"/>
       <c r="E146" s="39"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="36"/>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
       <c r="D147" s="38"/>
       <c r="E147" s="39"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="36"/>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
       <c r="D148" s="38"/>
       <c r="E148" s="39"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="36"/>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
       <c r="D149" s="38"/>
       <c r="E149" s="39"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="36"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
       <c r="D150" s="38"/>
       <c r="E150" s="39"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="36"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
       <c r="D151" s="38"/>
       <c r="E151" s="39"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="36"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
       <c r="D152" s="38"/>
       <c r="E152" s="39"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="36"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
       <c r="D153" s="38"/>
       <c r="E153" s="39"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="36"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
       <c r="D154" s="38"/>
       <c r="E154" s="39"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="36"/>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
       <c r="D155" s="38"/>
       <c r="E155" s="39"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="36"/>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
       <c r="D156" s="38"/>
       <c r="E156" s="39"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="36"/>
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
       <c r="D157" s="38"/>
       <c r="E157" s="39"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="36"/>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
       <c r="D158" s="38"/>
       <c r="E158" s="39"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="36"/>
       <c r="B159" s="37"/>
       <c r="C159" s="37"/>
       <c r="D159" s="38"/>
       <c r="E159" s="39"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="36"/>
       <c r="B160" s="37"/>
       <c r="C160" s="37"/>
       <c r="D160" s="38"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="36"/>
       <c r="B161" s="37"/>
       <c r="C161" s="37"/>
       <c r="D161" s="38"/>
       <c r="E161" s="39"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="36"/>
       <c r="B162" s="37"/>
       <c r="C162" s="37"/>
       <c r="D162" s="38"/>
       <c r="E162" s="39"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="36"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
       <c r="D163" s="38"/>
       <c r="E163" s="39"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="36"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
       <c r="D164" s="38"/>
       <c r="E164" s="39"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="36"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
       <c r="D165" s="38"/>
       <c r="E165" s="39"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="36"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
       <c r="D166" s="38"/>
       <c r="E166" s="39"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="36"/>
       <c r="B167" s="37"/>
       <c r="C167" s="37"/>
       <c r="D167" s="38"/>
       <c r="E167" s="39"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="36"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
       <c r="D168" s="38"/>
       <c r="E168" s="39"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="36"/>
       <c r="B169" s="37"/>
       <c r="C169" s="37"/>
       <c r="D169" s="38"/>
       <c r="E169" s="39"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="36"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
       <c r="D170" s="38"/>
       <c r="E170" s="39"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="36"/>
       <c r="B171" s="37"/>
       <c r="C171" s="37"/>
       <c r="D171" s="38"/>
       <c r="E171" s="39"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="36"/>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
       <c r="D172" s="38"/>
       <c r="E172" s="39"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="36"/>
       <c r="B173" s="37"/>
       <c r="C173" s="37"/>
       <c r="D173" s="38"/>
       <c r="E173" s="39"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="36"/>
       <c r="B174" s="37"/>
       <c r="C174" s="37"/>
       <c r="D174" s="38"/>
       <c r="E174" s="39"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="36"/>
       <c r="B175" s="37"/>
       <c r="C175" s="37"/>
       <c r="D175" s="38"/>
       <c r="E175" s="39"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="36"/>
       <c r="B176" s="37"/>
       <c r="C176" s="37"/>
       <c r="D176" s="38"/>
       <c r="E176" s="39"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="36"/>
       <c r="B177" s="37"/>
       <c r="C177" s="37"/>
       <c r="D177" s="38"/>
       <c r="E177" s="39"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="36"/>
       <c r="B178" s="37"/>
       <c r="C178" s="37"/>
       <c r="D178" s="38"/>
       <c r="E178" s="39"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="36"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
       <c r="D179" s="38"/>
       <c r="E179" s="39"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="36"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="39"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="36"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
       <c r="D181" s="38"/>
       <c r="E181" s="39"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="36"/>
       <c r="B182" s="37"/>
       <c r="C182" s="37"/>
       <c r="D182" s="38"/>
       <c r="E182" s="39"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="36"/>
       <c r="B183" s="37"/>
       <c r="C183" s="37"/>
       <c r="D183" s="38"/>
       <c r="E183" s="39"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="36"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
       <c r="D184" s="38"/>
       <c r="E184" s="39"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="36"/>
       <c r="B185" s="37"/>
       <c r="C185" s="37"/>
       <c r="D185" s="38"/>
       <c r="E185" s="39"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="36"/>
       <c r="B186" s="37"/>
       <c r="C186" s="37"/>
       <c r="D186" s="38"/>
       <c r="E186" s="39"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="36"/>
       <c r="B187" s="37"/>
       <c r="C187" s="37"/>
       <c r="D187" s="38"/>
       <c r="E187" s="39"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="36"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
       <c r="D188" s="38"/>
       <c r="E188" s="39"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="36"/>
       <c r="B189" s="37"/>
       <c r="C189" s="37"/>
       <c r="D189" s="38"/>
       <c r="E189" s="39"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="36"/>
       <c r="B190" s="37"/>
       <c r="C190" s="37"/>
       <c r="D190" s="38"/>
       <c r="E190" s="39"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="36"/>
       <c r="B191" s="37"/>
       <c r="C191" s="37"/>
       <c r="D191" s="38"/>
       <c r="E191" s="39"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="36"/>
       <c r="B192" s="37"/>
       <c r="C192" s="37"/>
       <c r="D192" s="38"/>
       <c r="E192" s="39"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="36"/>
       <c r="B193" s="37"/>
       <c r="C193" s="37"/>
       <c r="D193" s="38"/>
       <c r="E193" s="39"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="36"/>
       <c r="B194" s="37"/>
       <c r="C194" s="37"/>
       <c r="D194" s="38"/>
       <c r="E194" s="39"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="36"/>
       <c r="B195" s="37"/>
       <c r="C195" s="37"/>
       <c r="D195" s="38"/>
       <c r="E195" s="39"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="36"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
       <c r="D196" s="38"/>
       <c r="E196" s="39"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="36"/>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
       <c r="D197" s="38"/>
       <c r="E197" s="39"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="36"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
       <c r="D198" s="38"/>
       <c r="E198" s="39"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="36"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
       <c r="D199" s="38"/>
       <c r="E199" s="39"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
       <c r="D200" s="38"/>
       <c r="E200" s="39"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
       <c r="D201" s="38"/>
       <c r="E201" s="39"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
       <c r="D202" s="38"/>
       <c r="E202" s="39"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
       <c r="D203" s="38"/>
       <c r="E203" s="39"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
       <c r="D204" s="38"/>
       <c r="E204" s="39"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
       <c r="D205" s="38"/>
       <c r="E205" s="39"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
       <c r="D206" s="38"/>
       <c r="E206" s="39"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
       <c r="D207" s="38"/>
       <c r="E207" s="39"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
       <c r="D208" s="38"/>
       <c r="E208" s="39"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="37"/>
       <c r="D209" s="38"/>
       <c r="E209" s="39"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="37"/>
       <c r="D210" s="38"/>
       <c r="E210" s="39"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="37"/>
       <c r="D211" s="38"/>
       <c r="E211" s="39"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
       <c r="D212" s="38"/>
       <c r="E212" s="39"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
       <c r="D213" s="38"/>
       <c r="E213" s="39"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
       <c r="D214" s="38"/>
       <c r="E214" s="39"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
       <c r="D215" s="38"/>
       <c r="E215" s="39"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
       <c r="D216" s="38"/>
       <c r="E216" s="39"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="37"/>
       <c r="D217" s="38"/>
       <c r="E217" s="39"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="37"/>
       <c r="D218" s="38"/>
       <c r="E218" s="39"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="36"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
       <c r="D219" s="38"/>
       <c r="E219" s="39"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="36"/>
       <c r="B220" s="37"/>
       <c r="C220" s="37"/>
       <c r="D220" s="38"/>
       <c r="E220" s="39"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="36"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
       <c r="D221" s="38"/>
       <c r="E221" s="39"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="36"/>
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
       <c r="D222" s="38"/>
       <c r="E222" s="39"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
       <c r="D223" s="38"/>
       <c r="E223" s="39"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B224" s="37"/>
       <c r="C224" s="37"/>
       <c r="D224" s="38"/>
       <c r="E224" s="39"/>
     </row>
-    <row r="225" spans="2:5">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="37"/>
       <c r="C225" s="37"/>
       <c r="D225" s="38"/>
       <c r="E225" s="39"/>
     </row>
-    <row r="226" spans="2:5">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B226" s="37"/>
       <c r="C226" s="37"/>
       <c r="D226" s="38"/>
       <c r="E226" s="39"/>
     </row>
-    <row r="227" spans="2:5">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B227" s="37"/>
       <c r="C227" s="37"/>
       <c r="D227" s="38"/>
       <c r="E227" s="39"/>
     </row>
-    <row r="228" spans="2:5">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="37"/>
       <c r="C228" s="37"/>
       <c r="D228" s="38"/>
       <c r="E228" s="39"/>
     </row>
-    <row r="229" spans="2:5">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B229" s="37"/>
       <c r="C229" s="37"/>
       <c r="D229" s="38"/>
       <c r="E229" s="39"/>
     </row>
-    <row r="230" spans="2:5">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D230" s="38"/>
       <c r="E230" s="39"/>
     </row>
@@ -6286,32 +6342,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:M226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="29" customWidth="1"/>
-    <col min="2" max="3" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
+    <col min="2" max="3" width="16.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" ht="15.75">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="4" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -6328,7 +6384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>1</v>
       </c>
@@ -6345,7 +6401,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -6362,7 +6418,7 @@
         <v>892.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>3</v>
       </c>
@@ -6379,7 +6435,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -6396,7 +6452,7 @@
         <v>727.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="47" customFormat="1">
+    <row r="9" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41">
         <v>5</v>
       </c>
@@ -6418,7 +6474,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -6435,7 +6491,7 @@
         <v>679.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -6452,7 +6508,7 @@
         <v>674.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <v>8</v>
       </c>
@@ -6469,7 +6525,7 @@
         <v>663.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -6486,7 +6542,7 @@
         <v>660.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -6503,7 +6559,7 @@
         <v>650.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="54" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:13" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48">
         <v>11</v>
       </c>
@@ -6519,18 +6575,18 @@
       <c r="E15" s="51">
         <v>644.76</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="53"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -6547,7 +6603,7 @@
         <v>633.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -6564,7 +6620,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -6581,7 +6637,7 @@
         <v>548.59</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -6598,1558 +6654,1558 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="36"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="36"/>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="38"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
       <c r="D36" s="38"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
       <c r="D38" s="38"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="38"/>
       <c r="E39" s="39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
       <c r="E41" s="39"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
       <c r="E42" s="39"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
       <c r="D43" s="38"/>
       <c r="E43" s="39"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="38"/>
       <c r="E44" s="39"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="38"/>
       <c r="E45" s="39"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
       <c r="E46" s="39"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
       <c r="D47" s="38"/>
       <c r="E47" s="39"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
       <c r="D48" s="38"/>
       <c r="E48" s="39"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="38"/>
       <c r="E49" s="39"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="38"/>
       <c r="E50" s="39"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="38"/>
       <c r="E51" s="39"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="36"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="36"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="38"/>
       <c r="E53" s="39"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="36"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
       <c r="D54" s="38"/>
       <c r="E54" s="39"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="36"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
       <c r="D56" s="38"/>
       <c r="E56" s="39"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="36"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="36"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="36"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
       <c r="D62" s="38"/>
       <c r="E62" s="39"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
       <c r="D63" s="38"/>
       <c r="E63" s="39"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="36"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="36"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
       <c r="D65" s="38"/>
       <c r="E65" s="39"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
       <c r="D66" s="38"/>
       <c r="E66" s="39"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="38"/>
       <c r="E67" s="39"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="36"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
       <c r="D68" s="38"/>
       <c r="E68" s="39"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
       <c r="D69" s="38"/>
       <c r="E69" s="39"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
       <c r="D70" s="38"/>
       <c r="E70" s="39"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="36"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
       <c r="D71" s="38"/>
       <c r="E71" s="39"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="36"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
       <c r="E72" s="39"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="36"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="36"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="36"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="36"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="36"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
       <c r="E79" s="39"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
       <c r="D80" s="38"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="36"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
       <c r="D81" s="38"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="36"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
       <c r="D82" s="38"/>
       <c r="E82" s="39"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="36"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
       <c r="D83" s="38"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="36"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
       <c r="D84" s="38"/>
       <c r="E84" s="39"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="36"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
       <c r="D85" s="38"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="36"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
       <c r="D86" s="38"/>
       <c r="E86" s="39"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="36"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
       <c r="D87" s="38"/>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="36"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="38"/>
       <c r="E88" s="39"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="36"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="38"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="36"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
       <c r="D90" s="38"/>
       <c r="E90" s="39"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="36"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
       <c r="D91" s="38"/>
       <c r="E91" s="39"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="36"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
       <c r="D92" s="38"/>
       <c r="E92" s="39"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
       <c r="D93" s="38"/>
       <c r="E93" s="39"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
       <c r="D94" s="38"/>
       <c r="E94" s="39"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="36"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
       <c r="D95" s="38"/>
       <c r="E95" s="39"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="38"/>
       <c r="E96" s="39"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="36"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
       <c r="D97" s="38"/>
       <c r="E97" s="39"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="36"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
       <c r="D98" s="38"/>
       <c r="E98" s="39"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="36"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
       <c r="D99" s="38"/>
       <c r="E99" s="39"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="36"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
       <c r="D100" s="38"/>
       <c r="E100" s="39"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="36"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
       <c r="D101" s="38"/>
       <c r="E101" s="39"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="36"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="38"/>
       <c r="E102" s="39"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="36"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
       <c r="D103" s="38"/>
       <c r="E103" s="39"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="36"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
       <c r="D104" s="38"/>
       <c r="E104" s="39"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="36"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
       <c r="D105" s="38"/>
       <c r="E105" s="39"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="36"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
       <c r="D106" s="38"/>
       <c r="E106" s="39"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="36"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
       <c r="D107" s="38"/>
       <c r="E107" s="39"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="36"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
       <c r="D108" s="38"/>
       <c r="E108" s="39"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="36"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
       <c r="D109" s="38"/>
       <c r="E109" s="39"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="36"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
       <c r="D110" s="38"/>
       <c r="E110" s="39"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="36"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="38"/>
       <c r="E111" s="39"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="36"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
       <c r="D112" s="38"/>
       <c r="E112" s="39"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="36"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
       <c r="D113" s="38"/>
       <c r="E113" s="39"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="36"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
       <c r="D114" s="38"/>
       <c r="E114" s="39"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="36"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
       <c r="D115" s="38"/>
       <c r="E115" s="39"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="36"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
       <c r="D116" s="38"/>
       <c r="E116" s="39"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="36"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
       <c r="D117" s="38"/>
       <c r="E117" s="39"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="36"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
       <c r="D118" s="38"/>
       <c r="E118" s="39"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="36"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
       <c r="D119" s="38"/>
       <c r="E119" s="39"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="36"/>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
       <c r="D120" s="38"/>
       <c r="E120" s="39"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="36"/>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
       <c r="D121" s="38"/>
       <c r="E121" s="39"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="36"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
       <c r="D122" s="38"/>
       <c r="E122" s="39"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="36"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
       <c r="D123" s="38"/>
       <c r="E123" s="39"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="36"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
       <c r="D124" s="38"/>
       <c r="E124" s="39"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="36"/>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
       <c r="D125" s="38"/>
       <c r="E125" s="39"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="36"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
       <c r="D126" s="38"/>
       <c r="E126" s="39"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="36"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
       <c r="D127" s="38"/>
       <c r="E127" s="39"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="36"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
       <c r="D128" s="38"/>
       <c r="E128" s="39"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="36"/>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
       <c r="D129" s="38"/>
       <c r="E129" s="39"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="36"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
       <c r="D130" s="38"/>
       <c r="E130" s="39"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="36"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
       <c r="D131" s="38"/>
       <c r="E131" s="39"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="36"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
       <c r="D132" s="38"/>
       <c r="E132" s="39"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="36"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
       <c r="D133" s="38"/>
       <c r="E133" s="39"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="36"/>
       <c r="B134" s="37"/>
       <c r="C134" s="37"/>
       <c r="D134" s="38"/>
       <c r="E134" s="39"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="36"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
       <c r="D135" s="38"/>
       <c r="E135" s="39"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="36"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
       <c r="D136" s="38"/>
       <c r="E136" s="39"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="36"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
       <c r="D137" s="38"/>
       <c r="E137" s="39"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="36"/>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
       <c r="D138" s="38"/>
       <c r="E138" s="39"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="36"/>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
       <c r="D139" s="38"/>
       <c r="E139" s="39"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="36"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
       <c r="D140" s="38"/>
       <c r="E140" s="39"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="36"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
       <c r="D141" s="38"/>
       <c r="E141" s="39"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="36"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="38"/>
       <c r="E142" s="39"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="36"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
       <c r="D143" s="38"/>
       <c r="E143" s="39"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="36"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
       <c r="D144" s="38"/>
       <c r="E144" s="39"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="36"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
       <c r="D145" s="38"/>
       <c r="E145" s="39"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="36"/>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
       <c r="D146" s="38"/>
       <c r="E146" s="39"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="36"/>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
       <c r="D147" s="38"/>
       <c r="E147" s="39"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="36"/>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
       <c r="D148" s="38"/>
       <c r="E148" s="39"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="36"/>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
       <c r="D149" s="38"/>
       <c r="E149" s="39"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="36"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
       <c r="D150" s="38"/>
       <c r="E150" s="39"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="36"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
       <c r="D151" s="38"/>
       <c r="E151" s="39"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="36"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
       <c r="D152" s="38"/>
       <c r="E152" s="39"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="36"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
       <c r="D153" s="38"/>
       <c r="E153" s="39"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="36"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
       <c r="D154" s="38"/>
       <c r="E154" s="39"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="36"/>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
       <c r="D155" s="38"/>
       <c r="E155" s="39"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="36"/>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
       <c r="D156" s="38"/>
       <c r="E156" s="39"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="36"/>
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
       <c r="D157" s="38"/>
       <c r="E157" s="39"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="36"/>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
       <c r="D158" s="38"/>
       <c r="E158" s="39"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="36"/>
       <c r="B159" s="37"/>
       <c r="C159" s="37"/>
       <c r="D159" s="38"/>
       <c r="E159" s="39"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="36"/>
       <c r="B160" s="37"/>
       <c r="C160" s="37"/>
       <c r="D160" s="38"/>
       <c r="E160" s="39"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="36"/>
       <c r="B161" s="37"/>
       <c r="C161" s="37"/>
       <c r="D161" s="38"/>
       <c r="E161" s="39"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="36"/>
       <c r="B162" s="37"/>
       <c r="C162" s="37"/>
       <c r="D162" s="38"/>
       <c r="E162" s="39"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="36"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
       <c r="D163" s="38"/>
       <c r="E163" s="39"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="36"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
       <c r="D164" s="38"/>
       <c r="E164" s="39"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="36"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
       <c r="D165" s="38"/>
       <c r="E165" s="39"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="36"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
       <c r="D166" s="38"/>
       <c r="E166" s="39"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="36"/>
       <c r="B167" s="37"/>
       <c r="C167" s="37"/>
       <c r="D167" s="38"/>
       <c r="E167" s="39"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="36"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
       <c r="D168" s="38"/>
       <c r="E168" s="39"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="36"/>
       <c r="B169" s="37"/>
       <c r="C169" s="37"/>
       <c r="D169" s="38"/>
       <c r="E169" s="39"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="36"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
       <c r="D170" s="38"/>
       <c r="E170" s="39"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="36"/>
       <c r="B171" s="37"/>
       <c r="C171" s="37"/>
       <c r="D171" s="38"/>
       <c r="E171" s="39"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="36"/>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
       <c r="D172" s="38"/>
       <c r="E172" s="39"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="36"/>
       <c r="B173" s="37"/>
       <c r="C173" s="37"/>
       <c r="D173" s="38"/>
       <c r="E173" s="39"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="36"/>
       <c r="B174" s="37"/>
       <c r="C174" s="37"/>
       <c r="D174" s="38"/>
       <c r="E174" s="39"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="36"/>
       <c r="B175" s="37"/>
       <c r="C175" s="37"/>
       <c r="D175" s="38"/>
       <c r="E175" s="39"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="36"/>
       <c r="B176" s="37"/>
       <c r="C176" s="37"/>
       <c r="D176" s="38"/>
       <c r="E176" s="39"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="36"/>
       <c r="B177" s="37"/>
       <c r="C177" s="37"/>
       <c r="D177" s="38"/>
       <c r="E177" s="39"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="36"/>
       <c r="B178" s="37"/>
       <c r="C178" s="37"/>
       <c r="D178" s="38"/>
       <c r="E178" s="39"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="36"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
       <c r="D179" s="38"/>
       <c r="E179" s="39"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="36"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="39"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="36"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
       <c r="D181" s="38"/>
       <c r="E181" s="39"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="36"/>
       <c r="B182" s="37"/>
       <c r="C182" s="37"/>
       <c r="D182" s="38"/>
       <c r="E182" s="39"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="36"/>
       <c r="B183" s="37"/>
       <c r="C183" s="37"/>
       <c r="D183" s="38"/>
       <c r="E183" s="39"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="36"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
       <c r="D184" s="38"/>
       <c r="E184" s="39"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="36"/>
       <c r="B185" s="37"/>
       <c r="C185" s="37"/>
       <c r="D185" s="38"/>
       <c r="E185" s="39"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="36"/>
       <c r="B186" s="37"/>
       <c r="C186" s="37"/>
       <c r="D186" s="38"/>
       <c r="E186" s="39"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="36"/>
       <c r="B187" s="37"/>
       <c r="C187" s="37"/>
       <c r="D187" s="38"/>
       <c r="E187" s="39"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="36"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
       <c r="D188" s="38"/>
       <c r="E188" s="39"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="36"/>
       <c r="B189" s="37"/>
       <c r="C189" s="37"/>
       <c r="D189" s="38"/>
       <c r="E189" s="39"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="36"/>
       <c r="B190" s="37"/>
       <c r="C190" s="37"/>
       <c r="D190" s="38"/>
       <c r="E190" s="39"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="36"/>
       <c r="B191" s="37"/>
       <c r="C191" s="37"/>
       <c r="D191" s="38"/>
       <c r="E191" s="39"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="36"/>
       <c r="B192" s="37"/>
       <c r="C192" s="37"/>
       <c r="D192" s="38"/>
       <c r="E192" s="39"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="36"/>
       <c r="B193" s="37"/>
       <c r="C193" s="37"/>
       <c r="D193" s="38"/>
       <c r="E193" s="39"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="36"/>
       <c r="B194" s="37"/>
       <c r="C194" s="37"/>
       <c r="D194" s="38"/>
       <c r="E194" s="39"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="36"/>
       <c r="B195" s="37"/>
       <c r="C195" s="37"/>
       <c r="D195" s="38"/>
       <c r="E195" s="39"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="36"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
       <c r="D196" s="38"/>
       <c r="E196" s="39"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="36"/>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
       <c r="D197" s="38"/>
       <c r="E197" s="39"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="36"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
       <c r="D198" s="38"/>
       <c r="E198" s="39"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="36"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
       <c r="D199" s="38"/>
       <c r="E199" s="39"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="36"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
       <c r="D200" s="38"/>
       <c r="E200" s="39"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="36"/>
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
       <c r="D201" s="38"/>
       <c r="E201" s="39"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="36"/>
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
       <c r="D202" s="38"/>
       <c r="E202" s="39"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="36"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
       <c r="D203" s="38"/>
       <c r="E203" s="39"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="36"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
       <c r="D204" s="38"/>
       <c r="E204" s="39"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="36"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
       <c r="D205" s="38"/>
       <c r="E205" s="39"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="36"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
       <c r="D206" s="38"/>
       <c r="E206" s="39"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="36"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
       <c r="D207" s="38"/>
       <c r="E207" s="39"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="36"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
       <c r="D208" s="38"/>
       <c r="E208" s="39"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="36"/>
       <c r="B209" s="37"/>
       <c r="C209" s="37"/>
       <c r="D209" s="38"/>
       <c r="E209" s="39"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="36"/>
       <c r="B210" s="37"/>
       <c r="C210" s="37"/>
       <c r="D210" s="38"/>
       <c r="E210" s="39"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="36"/>
       <c r="B211" s="37"/>
       <c r="C211" s="37"/>
       <c r="D211" s="38"/>
       <c r="E211" s="39"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="36"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
       <c r="D212" s="38"/>
       <c r="E212" s="39"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="36"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
       <c r="D213" s="38"/>
       <c r="E213" s="39"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="36"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
       <c r="D214" s="38"/>
       <c r="E214" s="39"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="36"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
       <c r="D215" s="38"/>
       <c r="E215" s="39"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="36"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
       <c r="D216" s="38"/>
       <c r="E216" s="39"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="36"/>
       <c r="B217" s="37"/>
       <c r="C217" s="37"/>
       <c r="D217" s="38"/>
       <c r="E217" s="39"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="36"/>
       <c r="B218" s="37"/>
       <c r="C218" s="37"/>
       <c r="D218" s="38"/>
       <c r="E218" s="39"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
       <c r="D219" s="38"/>
       <c r="E219" s="39"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B220" s="37"/>
       <c r="C220" s="37"/>
       <c r="D220" s="38"/>
       <c r="E220" s="39"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
       <c r="D221" s="38"/>
       <c r="E221" s="39"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
       <c r="D222" s="38"/>
       <c r="E222" s="39"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
       <c r="D223" s="38"/>
       <c r="E223" s="39"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B224" s="37"/>
       <c r="C224" s="37"/>
       <c r="D224" s="38"/>
       <c r="E224" s="39"/>
     </row>
-    <row r="225" spans="2:5">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="37"/>
       <c r="C225" s="37"/>
       <c r="D225" s="38"/>
       <c r="E225" s="39"/>
     </row>
-    <row r="226" spans="2:5">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D226" s="38"/>
       <c r="E226" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="6" spans="1:13" s="27" customFormat="1" ht="63">
-      <c r="A6" s="69" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+    </row>
+    <row r="6" spans="1:13" s="27" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="30" t="s">
         <v>68</v>
       </c>
@@ -8169,12 +8225,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="4" t="s">
         <v>79</v>
       </c>
@@ -8200,7 +8256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -8225,18 +8281,18 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
@@ -8244,12 +8300,12 @@
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="58" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="55"/>
@@ -8261,12 +8317,12 @@
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="58" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="55"/>
@@ -8278,12 +8334,12 @@
       <c r="L11" s="55"/>
       <c r="M11" s="55"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="58" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="55"/>
@@ -8295,12 +8351,12 @@
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
-      <c r="E13" s="73"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
@@ -8310,12 +8366,12 @@
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="73"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
@@ -8325,12 +8381,12 @@
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
-      <c r="E15" s="73"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
@@ -8340,12 +8396,12 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="73"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
@@ -8355,12 +8411,12 @@
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
-      <c r="E17" s="73"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
@@ -8370,7 +8426,7 @@
       <c r="L17" s="55"/>
       <c r="M17" s="55"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -8385,7 +8441,7 @@
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M23" s="56"/>
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
@@ -8415,54 +8471,54 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" ht="47.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>60</v>
       </c>
@@ -8478,10 +8534,10 @@
       <c r="E6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="30" t="s">
         <v>68</v>
       </c>
@@ -8492,7 +8548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -8524,44 +8580,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="59" t="s">
         <v>86</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="59" t="s">
         <v>88</v>
       </c>
       <c r="F10" s="55"/>
@@ -8570,12 +8626,12 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="59" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="55"/>
@@ -8584,67 +8640,67 @@
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="74"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="55"/>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
-      <c r="E13" s="74"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="74"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
-      <c r="E15" s="74"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="74"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -8656,12 +8712,12 @@
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K22" s="56" t="s">
         <v>65</v>
       </c>
@@ -8687,47 +8743,47 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="57" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" ht="47.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+    </row>
+    <row r="6" spans="1:9" s="27" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>60</v>
       </c>
@@ -8753,7 +8809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -8779,7 +8835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -8795,7 +8851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -8809,7 +8865,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -8823,7 +8879,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -8835,7 +8891,7 @@
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -8845,7 +8901,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -8855,7 +8911,7 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -8865,7 +8921,7 @@
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -8875,7 +8931,7 @@
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -8885,7 +8941,7 @@
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -8895,7 +8951,7 @@
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>97</v>
       </c>
